--- a/食品饮料流程工艺数据.xlsx
+++ b/食品饮料流程工艺数据.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20378"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C096DE39-CFDB-4C5D-BA25-EF3299BA1587}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1546E0F8-B07B-4A8F-A8D2-32E1AE74AA62}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -641,19 +641,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD383"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A255" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="J263" sqref="J263"/>
+      <selection pane="bottomLeft" activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.21875" customWidth="1"/>
     <col min="2" max="2" width="10.5546875" customWidth="1"/>
-    <col min="3" max="8" width="13.77734375" customWidth="1"/>
-    <col min="9" max="28" width="5.44140625" customWidth="1"/>
-    <col min="29" max="30" width="6" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="28" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
